--- a/static/data/Não Contribuintes Visual.xlsx
+++ b/static/data/Não Contribuintes Visual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,33 +493,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>105092</v>
+        <v>105303</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BR1115783</t>
+          <t>BR0029472</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TECON TECNOLOGIA EM CONSTRUCOES LTD</t>
+          <t>DATASOL ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>6.209,28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -529,229 +529,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>6.209,28</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11/05/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05/11/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>105093</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BR1900406</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CONSTRUTORA JSOUTO LTDA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>303,67</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>303,67</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>11/05/2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>23/05/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05/11/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>105094</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BR1900406</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CONSTRUTORA JSOUTO LTDA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.647,69</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>4.647,69</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>11/05/2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>23/05/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05/11/2025</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>105095</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BR0028704</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SOCIEDADE BENEFICENTE DONA ELMIRIA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>47,27</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>47,27</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>11/05/2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>23/05/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05/11/2025</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>105096</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BR0029451</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GEARELAB - REPRODUÇÃO ASSISTIDA LTD</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>PB</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>26,03</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>26,03</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>11/05/2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>23/05/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
     </row>
